--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/15/seed4/result_data_KNN.xlsx
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.202</v>
+        <v>-10.491</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.946</v>
+        <v>-11.819</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.916</v>
+        <v>-12.173</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.654</v>
+        <v>-13.411</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.916</v>
+        <v>-12.173</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.158</v>
+        <v>-10.584</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.75</v>
+        <v>-12.969</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-12.289</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.174</v>
+        <v>-11.784</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.128</v>
+        <v>-13.105</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.186</v>
+        <v>-10.196</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
